--- a/BACKEND/aantik/Datos basicos-formato.xlsx
+++ b/BACKEND/aantik/Datos basicos-formato.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK\BACKEND\aantik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK-Correciones\BACKEND\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD7F58-12D4-428F-B844-7B73CB89996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677700E-6592-4E9D-8C7E-BE44E3A3507A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
   </bookViews>
   <sheets>
     <sheet name="datos organizacion social" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="273">
   <si>
     <t>DATOS BÁSICOS ORGANIZACIÓN SOCIAL</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>Entre semana, AM</t>
-  </si>
-  <si>
-    <t>Ancianos</t>
   </si>
   <si>
     <t>PRANA Incubadora de Empresas Culturales e Industrias Creativas</t>
@@ -867,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1204,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,15 +1237,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1639,16 +1636,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AC98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1656,7 +1653,7 @@
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="40" customWidth="1"/>
     <col min="11" max="11" width="21.88671875" customWidth="1"/>
     <col min="12" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -1676,46 +1673,46 @@
     <col min="29" max="29" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="18">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="L1" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42"/>
-    </row>
-    <row r="2" spans="2:29" ht="144">
-      <c r="B2" s="44" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
+    </row>
+    <row r="2" spans="2:29" ht="144" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1739,11 +1736,11 @@
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -1791,7 +1788,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>28</v>
@@ -1800,8 +1797,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:29">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1823,11 +1820,11 @@
       <c r="I3" s="1">
         <v>3213117440</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L3" s="1">
         <v>4</v>
@@ -1875,7 +1872,7 @@
         <v>43</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>43</v>
@@ -1884,8 +1881,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1909,11 +1906,11 @@
       <c r="I4" s="1">
         <v>3168330319</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="36" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -1961,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="AA4" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>42</v>
@@ -1970,8 +1967,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1995,11 +1992,11 @@
       <c r="I5" s="1">
         <v>3134844823</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="36" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -2047,7 +2044,7 @@
         <v>43</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>43</v>
@@ -2056,8 +2053,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2081,11 +2078,11 @@
       <c r="I6" s="1">
         <v>3123030236</v>
       </c>
-      <c r="J6" s="50" t="s">
-        <v>269</v>
+      <c r="J6" s="42" t="s">
+        <v>268</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -2133,45 +2130,45 @@
         <v>43</v>
       </c>
       <c r="AA6" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
-      <c r="B7" s="44" t="s">
+      <c r="C7" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>2010</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I7" s="1">
         <v>3197987259</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>94</v>
+      <c r="J7" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -2189,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>60</v>
@@ -2219,7 +2216,7 @@
         <v>43</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>42</v>
@@ -2228,36 +2225,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="1">
         <v>1989</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="I8" s="1">
         <v>3156026306</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>102</v>
+      <c r="J8" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -2275,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>60</v>
@@ -2305,7 +2302,7 @@
         <v>43</v>
       </c>
       <c r="AA8" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>43</v>
@@ -2314,36 +2311,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:29">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I9" s="1">
         <v>3108736412</v>
       </c>
-      <c r="J9" s="44" t="s">
-        <v>111</v>
+      <c r="J9" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -2355,13 +2352,13 @@
         <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>86</v>
@@ -2382,7 +2379,7 @@
         <v>47</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>48</v>
@@ -2391,7 +2388,7 @@
         <v>43</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>43</v>
@@ -2400,8 +2397,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:29">
-      <c r="B10" s="44"/>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2409,7 +2406,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="44"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="12"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2417,7 +2414,7 @@
         <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>63</v>
@@ -2436,13 +2433,13 @@
         <v>61</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>48</v>
@@ -2454,8 +2451,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
-      <c r="B11" s="44"/>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2463,7 +2460,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="12"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2471,7 +2468,7 @@
         <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>63</v>
@@ -2490,13 +2487,13 @@
         <v>61</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>48</v>
@@ -2508,8 +2505,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:29">
-      <c r="B12" s="44"/>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2517,7 +2514,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="12"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2525,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>63</v>
@@ -2544,13 +2541,13 @@
         <v>61</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>48</v>
@@ -2562,8 +2559,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
-      <c r="B13" s="44"/>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B13" s="36"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2571,7 +2568,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="12"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2579,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>63</v>
@@ -2598,13 +2595,13 @@
         <v>61</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>48</v>
@@ -2616,8 +2613,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
-      <c r="B14" s="44"/>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2625,7 +2622,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="12"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2633,7 +2630,7 @@
         <v>37</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>63</v>
@@ -2652,13 +2649,13 @@
         <v>61</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>48</v>
@@ -2670,8 +2667,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
-      <c r="B15" s="44"/>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2679,7 +2676,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="12"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2687,7 +2684,7 @@
         <v>37</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P15" s="34" t="s">
         <v>63</v>
@@ -2706,13 +2703,13 @@
         <v>61</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>48</v>
@@ -2724,8 +2721,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
-      <c r="B16" s="44"/>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2733,7 +2730,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="44"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="12"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2741,7 +2738,7 @@
         <v>37</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="34" t="s">
         <v>63</v>
@@ -2760,13 +2757,13 @@
         <v>61</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>48</v>
@@ -2778,8 +2775,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2787,7 +2784,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="44"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="12"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2795,7 +2792,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>63</v>
@@ -2814,13 +2811,13 @@
         <v>61</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>48</v>
@@ -2832,8 +2829,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="44"/>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2841,7 +2838,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="44"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="12"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2849,7 +2846,7 @@
         <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="34" t="s">
         <v>63</v>
@@ -2868,13 +2865,13 @@
         <v>61</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>48</v>
@@ -2886,8 +2883,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="44"/>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2895,7 +2892,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="44"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="12"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2903,7 +2900,7 @@
         <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P19" s="34" t="s">
         <v>63</v>
@@ -2922,13 +2919,13 @@
         <v>61</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>48</v>
@@ -2940,8 +2937,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="44"/>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2949,7 +2946,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="44"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="12"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2957,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="34" t="s">
         <v>63</v>
@@ -2976,13 +2973,13 @@
         <v>61</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>48</v>
@@ -2994,8 +2991,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="44"/>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3003,7 +3000,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="44"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="12"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3011,7 +3008,7 @@
         <v>37</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>63</v>
@@ -3030,13 +3027,13 @@
         <v>61</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>48</v>
@@ -3048,8 +3045,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="44"/>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3057,7 +3054,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="44"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="12"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3065,7 +3062,7 @@
         <v>37</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>63</v>
@@ -3084,13 +3081,13 @@
         <v>61</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>48</v>
@@ -3102,8 +3099,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
-      <c r="B23" s="44"/>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B23" s="36"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3111,7 +3108,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="44"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="12"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3119,7 +3116,7 @@
         <v>37</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P23" s="34" t="s">
         <v>63</v>
@@ -3138,13 +3135,13 @@
         <v>61</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>48</v>
@@ -3156,8 +3153,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="44"/>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3165,7 +3162,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="44"/>
+      <c r="J24" s="36"/>
       <c r="K24" s="12"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3173,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P24" s="34" t="s">
         <v>63</v>
@@ -3192,13 +3189,13 @@
         <v>61</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>48</v>
@@ -3210,8 +3207,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
-      <c r="B25" s="44"/>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3219,7 +3216,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="44"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="12"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3227,7 +3224,7 @@
         <v>37</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P25" s="34" t="s">
         <v>63</v>
@@ -3246,13 +3243,13 @@
         <v>61</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>48</v>
@@ -3264,8 +3261,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:29">
-      <c r="B26" s="44"/>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3273,7 +3270,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="44"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="12"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3281,7 +3278,7 @@
         <v>37</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P26" s="34" t="s">
         <v>63</v>
@@ -3300,13 +3297,13 @@
         <v>61</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>48</v>
@@ -3318,8 +3315,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
-      <c r="B27" s="44"/>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3327,7 +3324,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="44"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="12"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3335,7 +3332,7 @@
         <v>37</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>63</v>
@@ -3354,13 +3351,13 @@
         <v>61</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>48</v>
@@ -3372,8 +3369,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3381,7 +3378,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="12"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3389,7 +3386,7 @@
         <v>37</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="34" t="s">
         <v>63</v>
@@ -3408,13 +3405,13 @@
         <v>61</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>48</v>
@@ -3426,8 +3423,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3435,7 +3432,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="12"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3443,7 +3440,7 @@
         <v>37</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P29" s="34" t="s">
         <v>63</v>
@@ -3462,13 +3459,13 @@
         <v>61</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>48</v>
@@ -3480,8 +3477,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
-      <c r="B30" s="44"/>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3489,7 +3486,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="44"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="12"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3497,7 +3494,7 @@
         <v>37</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P30" s="34" t="s">
         <v>63</v>
@@ -3516,13 +3513,13 @@
         <v>61</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>48</v>
@@ -3534,8 +3531,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
-      <c r="B31" s="44"/>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3543,7 +3540,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="44"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="12"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3551,7 +3548,7 @@
         <v>37</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P31" s="34" t="s">
         <v>63</v>
@@ -3570,13 +3567,13 @@
         <v>61</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>48</v>
@@ -3588,8 +3585,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
-      <c r="B32" s="44"/>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3597,7 +3594,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="44"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="12"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3605,7 +3602,7 @@
         <v>37</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P32" s="34" t="s">
         <v>63</v>
@@ -3624,13 +3621,13 @@
         <v>61</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>48</v>
@@ -3642,8 +3639,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="44"/>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3651,7 +3648,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="44"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="12"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3659,7 +3656,7 @@
         <v>37</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P33" s="34" t="s">
         <v>63</v>
@@ -3678,13 +3675,13 @@
         <v>61</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>48</v>
@@ -3696,8 +3693,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="44"/>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3705,7 +3702,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="44"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="12"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3713,7 +3710,7 @@
         <v>37</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P34" s="34" t="s">
         <v>63</v>
@@ -3732,13 +3729,13 @@
         <v>61</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>48</v>
@@ -3750,8 +3747,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3759,7 +3756,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="44"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="12"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3767,7 +3764,7 @@
         <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P35" s="34" t="s">
         <v>63</v>
@@ -3786,13 +3783,13 @@
         <v>61</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>48</v>
@@ -3804,8 +3801,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3813,7 +3810,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="44"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="12"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3821,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P36" s="34" t="s">
         <v>63</v>
@@ -3840,13 +3837,13 @@
         <v>61</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>48</v>
@@ -3858,8 +3855,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:29">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B37" s="36"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3867,7 +3864,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="44"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="12"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3875,7 +3872,7 @@
         <v>37</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P37" s="34" t="s">
         <v>63</v>
@@ -3894,13 +3891,13 @@
         <v>61</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>48</v>
@@ -3912,8 +3909,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:29">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3921,7 +3918,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="44"/>
+      <c r="J38" s="36"/>
       <c r="K38" s="12"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3929,7 +3926,7 @@
         <v>37</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P38" s="34" t="s">
         <v>63</v>
@@ -3948,13 +3945,13 @@
         <v>61</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>48</v>
@@ -3966,8 +3963,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
-      <c r="B39" s="44"/>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B39" s="36"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3975,7 +3972,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="44"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="12"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3983,7 +3980,7 @@
         <v>37</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P39" s="34" t="s">
         <v>63</v>
@@ -4002,13 +3999,13 @@
         <v>61</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>48</v>
@@ -4020,8 +4017,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:29">
-      <c r="B40" s="44"/>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4029,7 +4026,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="44"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="12"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -4037,7 +4034,7 @@
         <v>37</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" s="34" t="s">
         <v>63</v>
@@ -4056,13 +4053,13 @@
         <v>61</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>48</v>
@@ -4074,8 +4071,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:29">
-      <c r="B41" s="44"/>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B41" s="36"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4083,7 +4080,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="44"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="12"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -4091,7 +4088,7 @@
         <v>37</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P41" s="34" t="s">
         <v>63</v>
@@ -4110,13 +4107,13 @@
         <v>61</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>48</v>
@@ -4128,8 +4125,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
-      <c r="B42" s="44"/>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4137,7 +4134,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="12"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -4145,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P42" s="34" t="s">
         <v>63</v>
@@ -4164,13 +4161,13 @@
         <v>61</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>48</v>
@@ -4182,8 +4179,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:29">
-      <c r="B43" s="44"/>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B43" s="36"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4191,7 +4188,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="44"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="12"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4199,7 +4196,7 @@
         <v>37</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P43" s="34" t="s">
         <v>63</v>
@@ -4218,13 +4215,13 @@
         <v>61</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>48</v>
@@ -4236,8 +4233,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
-      <c r="B44" s="44"/>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B44" s="36"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4245,7 +4242,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="44"/>
+      <c r="J44" s="36"/>
       <c r="K44" s="12"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -4253,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P44" s="34" t="s">
         <v>63</v>
@@ -4272,13 +4269,13 @@
         <v>61</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>48</v>
@@ -4290,8 +4287,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
-      <c r="B45" s="44"/>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4299,7 +4296,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="44"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="12"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4307,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P45" s="34" t="s">
         <v>63</v>
@@ -4326,13 +4323,13 @@
         <v>61</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>48</v>
@@ -4344,8 +4341,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:29">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B46" s="36"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4353,7 +4350,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="44"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="12"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4361,7 +4358,7 @@
         <v>37</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P46" s="34" t="s">
         <v>63</v>
@@ -4380,13 +4377,13 @@
         <v>61</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>48</v>
@@ -4398,8 +4395,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:29">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4407,7 +4404,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="44"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="12"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -4415,7 +4412,7 @@
         <v>37</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P47" s="34" t="s">
         <v>63</v>
@@ -4434,13 +4431,13 @@
         <v>61</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>48</v>
@@ -4452,8 +4449,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:29">
-      <c r="B48" s="44"/>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4461,7 +4458,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="44"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="12"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4469,7 +4466,7 @@
         <v>37</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>63</v>
@@ -4488,13 +4485,13 @@
         <v>61</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>48</v>
@@ -4506,8 +4503,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:29">
-      <c r="B49" s="44"/>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B49" s="36"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4515,7 +4512,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="44"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="12"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4523,7 +4520,7 @@
         <v>37</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>63</v>
@@ -4542,13 +4539,13 @@
         <v>61</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>48</v>
@@ -4560,8 +4557,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:29">
-      <c r="B50" s="44"/>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B50" s="36"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4569,7 +4566,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="44"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="12"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4577,7 +4574,7 @@
         <v>37</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P50" s="34" t="s">
         <v>63</v>
@@ -4596,13 +4593,13 @@
         <v>61</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>48</v>
@@ -4614,8 +4611,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:29">
-      <c r="B51" s="44"/>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B51" s="36"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4623,7 +4620,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="44"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="12"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4631,7 +4628,7 @@
         <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P51" s="34" t="s">
         <v>63</v>
@@ -4650,13 +4647,13 @@
         <v>61</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>48</v>
@@ -4668,8 +4665,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:29">
-      <c r="B52" s="44"/>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B52" s="36"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4677,7 +4674,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="44"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="12"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4685,7 +4682,7 @@
         <v>37</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P52" s="34" t="s">
         <v>63</v>
@@ -4704,13 +4701,13 @@
         <v>61</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>48</v>
@@ -4722,8 +4719,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:29">
-      <c r="B53" s="44"/>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B53" s="36"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4731,7 +4728,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="44"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="12"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4739,7 +4736,7 @@
         <v>37</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P53" s="34" t="s">
         <v>63</v>
@@ -4758,13 +4755,13 @@
         <v>61</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>48</v>
@@ -4776,8 +4773,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:29">
-      <c r="B54" s="44"/>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4785,7 +4782,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="44"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="12"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4793,7 +4790,7 @@
         <v>37</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P54" s="34" t="s">
         <v>63</v>
@@ -4812,13 +4809,13 @@
         <v>61</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>48</v>
@@ -4830,8 +4827,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:29">
-      <c r="B55" s="44"/>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B55" s="36"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4839,7 +4836,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="44"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="12"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4847,7 +4844,7 @@
         <v>37</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P55" s="34" t="s">
         <v>63</v>
@@ -4866,13 +4863,13 @@
         <v>61</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>48</v>
@@ -4884,8 +4881,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:29">
-      <c r="B56" s="44"/>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B56" s="36"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4893,7 +4890,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="44"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="12"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4901,7 +4898,7 @@
         <v>37</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P56" s="34" t="s">
         <v>63</v>
@@ -4920,13 +4917,13 @@
         <v>61</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>48</v>
@@ -4938,8 +4935,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:29">
-      <c r="B57" s="44"/>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B57" s="36"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4947,7 +4944,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="44"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="12"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4955,7 +4952,7 @@
         <v>37</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P57" s="34" t="s">
         <v>63</v>
@@ -4974,13 +4971,13 @@
         <v>61</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>48</v>
@@ -4992,8 +4989,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:29">
-      <c r="B58" s="44"/>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B58" s="36"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5001,7 +4998,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="44"/>
+      <c r="J58" s="36"/>
       <c r="K58" s="12"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -5009,7 +5006,7 @@
         <v>37</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P58" s="34" t="s">
         <v>63</v>
@@ -5028,13 +5025,13 @@
         <v>61</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>48</v>
@@ -5046,8 +5043,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:29">
-      <c r="B59" s="44"/>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B59" s="36"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5055,7 +5052,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="44"/>
+      <c r="J59" s="36"/>
       <c r="K59" s="12"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -5063,7 +5060,7 @@
         <v>37</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P59" s="34" t="s">
         <v>63</v>
@@ -5082,13 +5079,13 @@
         <v>61</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>48</v>
@@ -5100,8 +5097,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:29">
-      <c r="B60" s="44"/>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B60" s="36"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5109,7 +5106,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="44"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="12"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -5117,7 +5114,7 @@
         <v>37</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P60" s="34" t="s">
         <v>63</v>
@@ -5136,13 +5133,13 @@
         <v>61</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>48</v>
@@ -5154,8 +5151,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:29">
-      <c r="B61" s="44"/>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B61" s="36"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5163,7 +5160,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="44"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="12"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5171,7 +5168,7 @@
         <v>37</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P61" s="34" t="s">
         <v>63</v>
@@ -5190,13 +5187,13 @@
         <v>61</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>48</v>
@@ -5208,8 +5205,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:29">
-      <c r="B62" s="44"/>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B62" s="36"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5217,7 +5214,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="44"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="12"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -5238,8 +5235,8 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="2:29">
-      <c r="B63" s="44"/>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B63" s="36"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5247,7 +5244,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="44"/>
+      <c r="J63" s="36"/>
       <c r="K63" s="12"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5268,8 +5265,8 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="2:29">
-      <c r="B64" s="44"/>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B64" s="36"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5277,7 +5274,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="44"/>
+      <c r="J64" s="36"/>
       <c r="K64" s="12"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -5298,8 +5295,8 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="2:29">
-      <c r="B65" s="44"/>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B65" s="36"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5307,7 +5304,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="44"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="12"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -5328,8 +5325,8 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="2:29">
-      <c r="B66" s="44"/>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B66" s="36"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5337,7 +5334,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="44"/>
+      <c r="J66" s="36"/>
       <c r="K66" s="12"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5358,8 +5355,8 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="2:29">
-      <c r="B67" s="44"/>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B67" s="36"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5367,7 +5364,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="44"/>
+      <c r="J67" s="36"/>
       <c r="K67" s="12"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -5388,8 +5385,8 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="2:29">
-      <c r="B68" s="44"/>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B68" s="36"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5397,7 +5394,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="44"/>
+      <c r="J68" s="36"/>
       <c r="K68" s="12"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -5418,8 +5415,8 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="2:29">
-      <c r="B69" s="44"/>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B69" s="36"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5427,7 +5424,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="44"/>
+      <c r="J69" s="36"/>
       <c r="K69" s="12"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5448,8 +5445,8 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="2:29">
-      <c r="B70" s="44"/>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B70" s="36"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5457,7 +5454,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="44"/>
+      <c r="J70" s="36"/>
       <c r="K70" s="12"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -5478,8 +5475,8 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="2:29">
-      <c r="B71" s="44"/>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B71" s="36"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5487,7 +5484,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="44"/>
+      <c r="J71" s="36"/>
       <c r="K71" s="12"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -5508,8 +5505,8 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="2:29">
-      <c r="B72" s="44"/>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B72" s="36"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5517,7 +5514,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="44"/>
+      <c r="J72" s="36"/>
       <c r="K72" s="12"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -5538,8 +5535,8 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="2:29">
-      <c r="B73" s="44"/>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B73" s="36"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5547,7 +5544,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="44"/>
+      <c r="J73" s="36"/>
       <c r="K73" s="12"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -5568,8 +5565,8 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="2:29">
-      <c r="B74" s="44"/>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B74" s="36"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5577,7 +5574,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="44"/>
+      <c r="J74" s="36"/>
       <c r="K74" s="12"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -5598,8 +5595,8 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="2:29">
-      <c r="B75" s="44"/>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B75" s="36"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5607,7 +5604,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="44"/>
+      <c r="J75" s="36"/>
       <c r="K75" s="12"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -5628,8 +5625,8 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="2:29">
-      <c r="B76" s="44"/>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B76" s="36"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5637,7 +5634,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="44"/>
+      <c r="J76" s="36"/>
       <c r="K76" s="12"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -5658,8 +5655,8 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="2:29">
-      <c r="B77" s="44"/>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B77" s="36"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5667,7 +5664,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="44"/>
+      <c r="J77" s="36"/>
       <c r="K77" s="12"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -5688,8 +5685,8 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="2:29">
-      <c r="B78" s="44"/>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B78" s="36"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5697,7 +5694,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="44"/>
+      <c r="J78" s="36"/>
       <c r="K78" s="12"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -5718,8 +5715,8 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="2:29">
-      <c r="B79" s="44"/>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B79" s="36"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5727,7 +5724,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="44"/>
+      <c r="J79" s="36"/>
       <c r="K79" s="12"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -5748,8 +5745,8 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="2:29">
-      <c r="B80" s="44"/>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B80" s="36"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5757,7 +5754,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="44"/>
+      <c r="J80" s="36"/>
       <c r="K80" s="12"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -5778,8 +5775,8 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="2:29">
-      <c r="B81" s="44"/>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B81" s="36"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5787,7 +5784,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="44"/>
+      <c r="J81" s="36"/>
       <c r="K81" s="12"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -5808,8 +5805,8 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="2:29">
-      <c r="B82" s="44"/>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B82" s="36"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5817,7 +5814,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="44"/>
+      <c r="J82" s="36"/>
       <c r="K82" s="12"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -5838,8 +5835,8 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="2:29">
-      <c r="B83" s="44"/>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B83" s="36"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5847,7 +5844,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="44"/>
+      <c r="J83" s="36"/>
       <c r="K83" s="12"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -5868,8 +5865,8 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="2:29">
-      <c r="B84" s="44"/>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B84" s="36"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5877,7 +5874,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="44"/>
+      <c r="J84" s="36"/>
       <c r="K84" s="12"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -5898,8 +5895,8 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="2:29">
-      <c r="B85" s="44"/>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B85" s="36"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5907,7 +5904,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="44"/>
+      <c r="J85" s="36"/>
       <c r="K85" s="12"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -5928,8 +5925,8 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="2:29">
-      <c r="B86" s="44"/>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B86" s="36"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5937,7 +5934,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="44"/>
+      <c r="J86" s="36"/>
       <c r="K86" s="12"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -5958,8 +5955,8 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="2:29">
-      <c r="B87" s="44"/>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5967,7 +5964,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="44"/>
+      <c r="J87" s="36"/>
       <c r="K87" s="12"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -5988,8 +5985,8 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="2:29">
-      <c r="B88" s="44"/>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B88" s="36"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5997,7 +5994,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="44"/>
+      <c r="J88" s="36"/>
       <c r="K88" s="12"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -6018,8 +6015,8 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="2:29">
-      <c r="B89" s="44"/>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B89" s="36"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6027,7 +6024,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="44"/>
+      <c r="J89" s="36"/>
       <c r="K89" s="12"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -6048,31 +6045,31 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="2:29">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="2:29">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="2:29">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="2:29">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="2:29">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="2:29">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="2:29">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="11:11">
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K97" s="12"/>
     </row>
-    <row r="98" spans="11:11">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K98" s="12"/>
     </row>
   </sheetData>
@@ -6178,9 +6175,9 @@
       <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.44140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="40" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
@@ -6190,7 +6187,7 @@
     <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="48" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="40" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="22.44140625" customWidth="1"/>
@@ -6213,52 +6210,52 @@
     <col min="32" max="32" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49"/>
+    </row>
+    <row r="2" spans="2:36" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="42"/>
-    </row>
-    <row r="2" spans="2:36" ht="187.2">
-      <c r="B2" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -6270,7 +6267,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -6279,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
@@ -6287,7 +6284,7 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -6303,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>14</v>
@@ -6321,7 +6318,7 @@
         <v>19</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>21</v>
@@ -6351,15 +6348,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:36">
-      <c r="B3" s="44" t="s">
-        <v>124</v>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
@@ -6374,7 +6371,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>56</v>
@@ -6382,7 +6379,7 @@
       <c r="K3" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -6407,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -6446,15 +6443,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:36">
-      <c r="B4" s="44" t="s">
-        <v>127</v>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>53</v>
@@ -6469,7 +6466,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>56</v>
@@ -6477,7 +6474,7 @@
       <c r="K4" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -6502,7 +6499,7 @@
         <v>58</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>60</v>
@@ -6541,15 +6538,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:36">
-      <c r="B5" s="44" t="s">
-        <v>129</v>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>53</v>
@@ -6564,7 +6561,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>56</v>
@@ -6572,7 +6569,7 @@
       <c r="K5" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="36" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -6595,7 +6592,7 @@
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>60</v>
@@ -6634,39 +6631,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:36">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="K6" s="1">
         <v>3214403765</v>
       </c>
-      <c r="L6" s="44" t="s">
-        <v>138</v>
+      <c r="L6" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>35</v>
@@ -6690,7 +6687,7 @@
         <v>39</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>60</v>
@@ -6708,7 +6705,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>64</v>
@@ -6729,48 +6726,48 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:36">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>2010</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K7" s="1">
         <v>3197987259</v>
       </c>
-      <c r="L7" s="44" t="s">
-        <v>94</v>
+      <c r="L7" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1">
         <v>3197987259</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="1">
         <v>4</v>
@@ -6785,7 +6782,7 @@
         <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>60</v>
@@ -6824,48 +6821,48 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:36" ht="18">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="2:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="K8" s="20">
         <v>3054540271</v>
       </c>
-      <c r="L8" s="44" t="s">
-        <v>102</v>
+      <c r="L8" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" s="1">
         <v>3156026306</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -6880,28 +6877,28 @@
         <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>48</v>
@@ -6910,7 +6907,7 @@
         <v>42</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>42</v>
@@ -6920,48 +6917,48 @@
       </c>
       <c r="AJ8" s="28"/>
     </row>
-    <row r="9" spans="2:36" ht="22.2">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:36" ht="22.2" x14ac:dyDescent="0.35">
+      <c r="B9" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="K9" s="20">
         <v>3158433152</v>
       </c>
-      <c r="L9" s="49" t="s">
-        <v>252</v>
+      <c r="L9" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1">
         <v>3156026306</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
@@ -6973,10 +6970,10 @@
         <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>60</v>
@@ -6988,16 +6985,16 @@
         <v>42</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>48</v>
@@ -7006,7 +7003,7 @@
         <v>42</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>42</v>
@@ -7015,46 +7012,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:36">
-      <c r="B10" s="44" t="s">
-        <v>150</v>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1">
         <v>3156026306</v>
       </c>
-      <c r="L10" s="44" t="s">
-        <v>102</v>
+      <c r="L10" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1">
         <v>3156026306</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -7066,31 +7063,31 @@
         <v>37</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>48</v>
@@ -7099,7 +7096,7 @@
         <v>42</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>42</v>
@@ -7108,37 +7105,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:36">
-      <c r="B11" s="44" t="s">
-        <v>152</v>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>35</v>
@@ -7162,7 +7159,7 @@
         <v>39</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>60</v>
@@ -7180,7 +7177,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>64</v>
@@ -7201,46 +7198,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:36">
-      <c r="B12" s="44" t="s">
-        <v>154</v>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1">
         <v>2015</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12">
         <v>3005558808</v>
       </c>
-      <c r="L12" s="48" t="s">
-        <v>142</v>
+      <c r="L12" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="1">
         <v>3108736412</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P12" s="1">
         <v>2</v>
@@ -7252,10 +7249,10 @@
         <v>37</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>60</v>
@@ -7276,7 +7273,7 @@
         <v>47</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>48</v>
@@ -7294,34 +7291,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:36">
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D13" s="1">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="44"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="1" t="s">
         <v>35</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>39</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>60</v>
@@ -7362,7 +7359,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>64</v>
@@ -7383,37 +7380,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:36">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D14" s="1">
         <v>2018</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="1">
         <v>3013659189</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>169</v>
+      <c r="L14" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>35</v>
@@ -7437,7 +7434,7 @@
         <v>39</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>60</v>
@@ -7455,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>64</v>
@@ -7476,8 +7473,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:36">
-      <c r="B15" s="44"/>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -7487,7 +7484,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="44"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -7513,13 +7510,13 @@
         <v>61</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>48</v>
@@ -7531,8 +7528,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:36">
-      <c r="B16" s="44"/>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7542,7 +7539,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="44"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -7568,13 +7565,13 @@
         <v>61</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>48</v>
@@ -7586,8 +7583,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:32">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7597,7 +7594,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="44"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -7623,13 +7620,13 @@
         <v>61</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>48</v>
@@ -7641,8 +7638,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:32">
-      <c r="B18" s="44"/>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7652,7 +7649,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="44"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -7678,13 +7675,13 @@
         <v>61</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>48</v>
@@ -7696,8 +7693,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
-      <c r="B19" s="44"/>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7707,7 +7704,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="44"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7733,13 +7730,13 @@
         <v>61</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>48</v>
@@ -7751,8 +7748,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:32">
-      <c r="B20" s="44"/>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7762,7 +7759,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="44"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7788,13 +7785,13 @@
         <v>61</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>48</v>
@@ -7806,8 +7803,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:32">
-      <c r="B21" s="44"/>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7817,7 +7814,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="44"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7843,13 +7840,13 @@
         <v>61</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>48</v>
@@ -7861,8 +7858,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:32">
-      <c r="B22" s="44"/>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7872,7 +7869,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="44"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -7898,13 +7895,13 @@
         <v>61</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>48</v>
@@ -7916,8 +7913,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
-      <c r="B23" s="44"/>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B23" s="36"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7927,7 +7924,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="44"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -7953,13 +7950,13 @@
         <v>61</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>48</v>
@@ -7971,8 +7968,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:32">
-      <c r="B24" s="44"/>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7982,7 +7979,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="44"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -8008,13 +8005,13 @@
         <v>61</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>48</v>
@@ -8026,8 +8023,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:32">
-      <c r="B25" s="44"/>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8037,7 +8034,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="44"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -8063,13 +8060,13 @@
         <v>61</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>48</v>
@@ -8081,8 +8078,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:32">
-      <c r="B26" s="44"/>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8092,7 +8089,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="44"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -8118,13 +8115,13 @@
         <v>61</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>48</v>
@@ -8136,8 +8133,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
-      <c r="B27" s="44"/>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8147,7 +8144,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="44"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -8173,13 +8170,13 @@
         <v>61</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>48</v>
@@ -8191,8 +8188,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8202,7 +8199,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="44"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -8228,13 +8225,13 @@
         <v>61</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>48</v>
@@ -8246,8 +8243,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -8257,7 +8254,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="44"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -8283,13 +8280,13 @@
         <v>61</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>48</v>
@@ -8301,8 +8298,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
-      <c r="B30" s="44"/>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8312,7 +8309,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="44"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -8338,13 +8335,13 @@
         <v>61</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>48</v>
@@ -8356,8 +8353,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
-      <c r="B31" s="44"/>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8367,7 +8364,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="44"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -8393,13 +8390,13 @@
         <v>61</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>48</v>
@@ -8411,8 +8408,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:32">
-      <c r="B32" s="44"/>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8422,7 +8419,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="44"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -8448,13 +8445,13 @@
         <v>61</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>48</v>
@@ -8466,8 +8463,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:32">
-      <c r="B33" s="44"/>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8477,7 +8474,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="44"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -8503,13 +8500,13 @@
         <v>61</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>48</v>
@@ -8521,8 +8518,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:32">
-      <c r="B34" s="44"/>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8532,7 +8529,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="44"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -8558,13 +8555,13 @@
         <v>61</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>48</v>
@@ -8576,8 +8573,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:32">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -8587,7 +8584,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="44"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -8613,13 +8610,13 @@
         <v>61</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>48</v>
@@ -8631,8 +8628,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:32">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -8642,7 +8639,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="44"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -8668,13 +8665,13 @@
         <v>61</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>48</v>
@@ -8686,8 +8683,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:32">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="36"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -8697,7 +8694,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="44"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -8723,13 +8720,13 @@
         <v>61</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>48</v>
@@ -8741,8 +8738,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:32">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -8752,7 +8749,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="44"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -8778,13 +8775,13 @@
         <v>61</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>48</v>
@@ -8796,8 +8793,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:32">
-      <c r="B39" s="44"/>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="36"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -8807,7 +8804,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="44"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -8833,13 +8830,13 @@
         <v>61</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>48</v>
@@ -8851,8 +8848,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:32">
-      <c r="B40" s="44"/>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -8862,7 +8859,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="44"/>
+      <c r="L40" s="36"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -8888,13 +8885,13 @@
         <v>61</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>48</v>
@@ -8906,8 +8903,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:32">
-      <c r="B41" s="44"/>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="36"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8917,7 +8914,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="44"/>
+      <c r="L41" s="36"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -8943,13 +8940,13 @@
         <v>61</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>48</v>
@@ -8961,8 +8958,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:32">
-      <c r="B42" s="44"/>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8972,7 +8969,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="44"/>
+      <c r="L42" s="36"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -8998,13 +8995,13 @@
         <v>61</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>48</v>
@@ -9016,8 +9013,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:32">
-      <c r="B43" s="44"/>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="36"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9027,7 +9024,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="44"/>
+      <c r="L43" s="36"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -9053,13 +9050,13 @@
         <v>61</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>48</v>
@@ -9071,8 +9068,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:32">
-      <c r="B44" s="44"/>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="36"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -9082,7 +9079,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="44"/>
+      <c r="L44" s="36"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -9108,13 +9105,13 @@
         <v>61</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>48</v>
@@ -9126,8 +9123,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:32">
-      <c r="B45" s="44"/>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9137,7 +9134,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="44"/>
+      <c r="L45" s="36"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -9163,13 +9160,13 @@
         <v>61</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>48</v>
@@ -9181,8 +9178,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:32">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="36"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9192,7 +9189,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="44"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -9218,13 +9215,13 @@
         <v>61</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>48</v>
@@ -9236,8 +9233,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:32">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9247,7 +9244,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="44"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -9273,13 +9270,13 @@
         <v>61</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB47" s="1" t="s">
         <v>48</v>
@@ -9291,8 +9288,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:32">
-      <c r="B48" s="44"/>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9302,7 +9299,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="44"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -9328,13 +9325,13 @@
         <v>61</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>48</v>
@@ -9346,8 +9343,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:32">
-      <c r="B49" s="44"/>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" s="36"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9357,7 +9354,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="44"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -9383,13 +9380,13 @@
         <v>61</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB49" s="1" t="s">
         <v>48</v>
@@ -9401,8 +9398,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:32">
-      <c r="B50" s="44"/>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" s="36"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -9412,7 +9409,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="44"/>
+      <c r="L50" s="36"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -9438,13 +9435,13 @@
         <v>61</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>48</v>
@@ -9456,8 +9453,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:32">
-      <c r="B51" s="44"/>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" s="36"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -9467,7 +9464,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="44"/>
+      <c r="L51" s="36"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -9493,13 +9490,13 @@
         <v>61</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>48</v>
@@ -9511,8 +9508,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:32">
-      <c r="B52" s="44"/>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" s="36"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9522,7 +9519,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="44"/>
+      <c r="L52" s="36"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -9548,13 +9545,13 @@
         <v>61</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>48</v>
@@ -9566,8 +9563,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:32">
-      <c r="B53" s="44"/>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" s="36"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -9577,7 +9574,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="44"/>
+      <c r="L53" s="36"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -9603,13 +9600,13 @@
         <v>61</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>48</v>
@@ -9621,8 +9618,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:32">
-      <c r="B54" s="44"/>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -9632,7 +9629,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="44"/>
+      <c r="L54" s="36"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -9658,13 +9655,13 @@
         <v>61</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>48</v>
@@ -9676,8 +9673,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:32">
-      <c r="B55" s="44"/>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B55" s="36"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9687,7 +9684,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="44"/>
+      <c r="L55" s="36"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -9713,13 +9710,13 @@
         <v>61</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB55" s="1" t="s">
         <v>48</v>
@@ -9731,8 +9728,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:32">
-      <c r="B56" s="44"/>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B56" s="36"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -9742,7 +9739,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="44"/>
+      <c r="L56" s="36"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -9768,13 +9765,13 @@
         <v>61</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>48</v>
@@ -9786,229 +9783,229 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:32">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I57" s="12"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="2:32">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I58" s="12"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="2:32">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I59" s="12"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="2:32">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I60" s="12"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="2:32">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I61" s="12"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="2:32">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I62" s="12"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="2:32">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I63" s="12"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="2:32">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I64" s="12"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="9:31">
+    <row r="65" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I65" s="12"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="9:31">
+    <row r="66" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I66" s="12"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="9:31">
+    <row r="67" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I67" s="12"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="9:31">
+    <row r="68" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I68" s="12"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="9:31">
+    <row r="69" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I69" s="12"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="9:31">
+    <row r="70" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I70" s="12"/>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="9:31">
+    <row r="71" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I71" s="12"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="9:31">
+    <row r="72" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I72" s="12"/>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="9:31">
+    <row r="73" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I73" s="12"/>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="9:31">
+    <row r="74" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I74" s="12"/>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="9:31">
+    <row r="75" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I75" s="12"/>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="9:31">
+    <row r="76" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I76" s="12"/>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="9:31">
+    <row r="77" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I77" s="12"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="9:31">
+    <row r="78" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I78" s="12"/>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="9:31">
+    <row r="79" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I79" s="12"/>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="9:31">
+    <row r="80" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I80" s="12"/>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="9:31">
+    <row r="81" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I81" s="12"/>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="9:31">
+    <row r="82" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I82" s="12"/>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="9:31">
+    <row r="83" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I83" s="12"/>
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="9:31">
+    <row r="84" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I84" s="12"/>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="9:31">
+    <row r="85" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I85" s="12"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="9:31">
+    <row r="86" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I86" s="12"/>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="9:31">
+    <row r="87" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I87" s="12"/>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="9:31">
+    <row r="88" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I88" s="12"/>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="9:31">
+    <row r="89" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I89" s="12"/>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="9:31">
+    <row r="90" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="9:31">
+    <row r="91" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="9:31">
+    <row r="92" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="9:31">
+    <row r="93" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="9:31">
+    <row r="94" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="9:31">
+    <row r="95" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="9:31">
+    <row r="96" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="9:9">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="9:9">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="12"/>
     </row>
   </sheetData>
@@ -10116,19 +10113,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AB5D1-7E73-45CA-AA6F-2BD3A01FFF56}">
   <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="40" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" customWidth="1"/>
     <col min="10" max="12" width="21.5546875" customWidth="1"/>
     <col min="13" max="14" width="15.109375" customWidth="1"/>
@@ -10142,128 +10139,128 @@
     <col min="22" max="22" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49"/>
+    </row>
+    <row r="2" spans="2:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
-    </row>
-    <row r="2" spans="2:22" ht="57.6">
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G3" s="1">
         <v>3212036711</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>63</v>
@@ -10287,37 +10284,37 @@
         <v>61</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="44" t="s">
-        <v>271</v>
+      <c r="H4" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -10334,36 +10331,36 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="45" t="s">
-        <v>203</v>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G5" s="1">
         <v>3212036711</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>270</v>
+      <c r="H5" s="42" t="s">
+        <v>269</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>58</v>
@@ -10387,11 +10384,11 @@
         <v>61</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="U5" s="1" t="s">
         <v>42</v>
       </c>
@@ -10399,23 +10396,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="50" t="s">
-        <v>272</v>
+      <c r="H6" s="42" t="s">
+        <v>271</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -10432,21 +10429,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="46" t="s">
-        <v>207</v>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="44" t="s">
-        <v>273</v>
+      <c r="H7" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -10463,46 +10460,46 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="1">
         <v>3005771715</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>39</v>
@@ -10514,11 +10511,11 @@
         <v>61</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="U8" s="1" t="s">
         <v>42</v>
       </c>
@@ -10526,14 +10523,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="47"/>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -10549,14 +10546,14 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="44"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -10572,14 +10569,14 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="44"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="44"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -10595,14 +10592,14 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="44"/>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -10618,14 +10615,14 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="44"/>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="36"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="44"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -10641,14 +10638,14 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="44"/>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -10664,14 +10661,14 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="44"/>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="44"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -10687,14 +10684,14 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="2:22">
-      <c r="B16" s="44"/>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="44"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -10710,14 +10707,14 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="44"/>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="44"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -10733,14 +10730,14 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="44"/>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -10756,14 +10753,14 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="44"/>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="44"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -10779,14 +10776,14 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="44"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="44"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -10802,14 +10799,14 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="44"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="44"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -10825,14 +10822,14 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="44"/>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="44"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -10848,14 +10845,14 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="44"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="36"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="44"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -10871,14 +10868,14 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="44"/>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="44"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -10894,14 +10891,14 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="44"/>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="44"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -10917,14 +10914,14 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="44"/>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="44"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -10940,14 +10937,14 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="2:22">
-      <c r="B27" s="44"/>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="44"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -10963,14 +10960,14 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="44"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -10986,14 +10983,14 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="2:22">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="44"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -11009,14 +11006,14 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="44"/>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="44"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -11032,14 +11029,14 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="44"/>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="36"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="44"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -11055,14 +11052,14 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="2:22">
-      <c r="B32" s="44"/>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="44"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -11078,14 +11075,14 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="44"/>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="44"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -11101,14 +11098,14 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="44"/>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="44"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -11124,14 +11121,14 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="44"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -11147,14 +11144,14 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="44"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -11170,14 +11167,14 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="36"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="44"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -11193,14 +11190,14 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="36"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="44"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -11216,14 +11213,14 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="44"/>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="36"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="44"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -11239,14 +11236,14 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="2:22">
-      <c r="B40" s="44"/>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="44"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -11262,14 +11259,14 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="2:22">
-      <c r="B41" s="44"/>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="36"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="44"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -11285,14 +11282,14 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="2:22">
-      <c r="B42" s="44"/>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="44"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -11308,14 +11305,14 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="2:22">
-      <c r="B43" s="44"/>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="36"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="44"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -11331,14 +11328,14 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="2:22">
-      <c r="B44" s="44"/>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="36"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="44"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -11354,14 +11351,14 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="2:22">
-      <c r="B45" s="44"/>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="44"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -11377,14 +11374,14 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="2:22">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="36"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="44"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -11400,14 +11397,14 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="2:22">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="44"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -11494,7 +11491,7 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -11509,48 +11506,48 @@
     <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
@@ -11567,7 +11564,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>61</v>
@@ -11576,25 +11573,25 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="28.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -11603,39 +11600,39 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>86</v>
@@ -11648,36 +11645,36 @@
         <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="28.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
@@ -11685,24 +11682,24 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
@@ -11710,42 +11707,42 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" t="s">
         <v>233</v>
-      </c>
-      <c r="I8" t="s">
-        <v>234</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11758,14 +11755,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" s="27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -11775,20 +11772,20 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11802,14 +11799,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11821,20 +11818,20 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="28.8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="M13" s="28"/>
       <c r="N13" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="12:22">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="12:22" x14ac:dyDescent="0.3">
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -11856,14 +11853,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12070,27 +12065,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5A27CE-91D1-4321-9DE6-622E399F7010}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9289C00-7C96-4A67-8815-937B2114DC1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
-    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12115,9 +12103,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9289C00-7C96-4A67-8815-937B2114DC1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5A27CE-91D1-4321-9DE6-622E399F7010}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
+    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>